--- a/src/test/resources/data/SIGNUP_TEST.xlsx
+++ b/src/test/resources/data/SIGNUP_TEST.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\KTPM\Testing\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FD15C1-F1A2-4D56-ACF9-886352A6EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6C938-E0F5-4925-8455-A2F1591CE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGNUP_DATA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
   <si>
     <t>Email</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>https://www.phptravels.net/login</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>123qwe!@#</t>
   </si>
   <si>
@@ -67,23 +61,86 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>https://www.phptravels.net/dashboard</t>
-  </si>
-  <si>
     <t>supplier@phptravels.com</t>
   </si>
   <si>
     <t>demosupplier</t>
   </si>
   <si>
-    <t>inbaicualong@gmail.com</t>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/signup_success</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/signup</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>IsEmailRandom</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>random1731341085123@gmail.com</t>
+  </si>
+  <si>
+    <t>Test signup function</t>
+  </si>
+  <si>
+    <t>multipleSignup</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>random1731341094155@gmail.com</t>
+  </si>
+  <si>
+    <t>random1731341105807@gmail.com</t>
+  </si>
+  <si>
+    <t>random1731341120683@gmail.com</t>
+  </si>
+  <si>
+    <t>random1731341129871@gmail.com</t>
+  </si>
+  <si>
+    <t>random1731341154600@gmail.com</t>
+  </si>
+  <si>
+    <t>random1731341163484@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +158,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,12 +198,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,10 +213,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,138 +530,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.0"/>
+    <col min="2" max="2" customWidth="true" width="10.90625"/>
+    <col min="3" max="3" customWidth="true" width="11.0"/>
+    <col min="4" max="4" customWidth="true" width="12.1796875"/>
+    <col min="5" max="5" customWidth="true" width="25.36328125"/>
+    <col min="6" max="6" customWidth="true" width="19.36328125"/>
+    <col min="7" max="7" customWidth="true" width="15.6328125"/>
+    <col min="8" max="8" customWidth="true" width="45.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{E1A45653-6474-42D4-815D-C282CF09C45F}"/>
+    <hyperlink ref="H2:H5" r:id="rId2" display="https://www.phptravels.net/signup" xr:uid="{111CF75E-0E7F-4246-98C9-1F70959DB7F9}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{964F22C2-C105-49FA-907A-6AA0B6E97079}"/>
+    <hyperlink ref="F4:F6" r:id="rId4" display="123qwe!@#" xr:uid="{634AD4D6-04AD-40B4-9B32-47866EBDA3FB}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{9292CF57-4BCC-4619-AA2B-A8863324AC1F}"/>
+    <hyperlink ref="H8:H9" r:id="rId6" display="https://www.phptravels.net/signup_success" xr:uid="{5D0A0A2D-F857-4DFB-8512-D89E8883EFE0}"/>
+    <hyperlink ref="F10" r:id="rId7" display="123qwe!@#" xr:uid="{15FB2A60-4F6C-4ECF-B52F-D68E711E6084}"/>
+    <hyperlink ref="H7:H8" r:id="rId8" display="https://www.phptravels.net/signup" xr:uid="{26B53619-A547-4685-BBB5-E7C6BEA64104}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{6854E384-5F35-41C9-A8D5-11F6AFFD0F45}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{5375FE46-A9FD-4756-9CCA-B33FBE8DBCC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAF85E7-5932-4F31-BB8B-36E58DFD676F}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="10" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.1796875"/>
+    <col min="2" max="2" customWidth="true" width="11.1796875"/>
+    <col min="3" max="3" customWidth="true" width="14.54296875"/>
+    <col min="4" max="4" customWidth="true" width="20.90625"/>
+    <col min="5" max="5" customWidth="true" width="20.0"/>
+    <col min="6" max="6" customWidth="true" width="16.6328125"/>
+    <col min="7" max="7" customWidth="true" width="15.6328125"/>
+    <col min="8" max="8" customWidth="true" width="24.6328125"/>
+    <col min="9" max="14" customWidth="true" width="15.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n" s="7">
+        <v>45607.96166638889</v>
+      </c>
+      <c r="I2" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A3" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n" s="8">
+        <v>45607.96179876157</v>
+      </c>
+      <c r="I3" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A4" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n" s="9">
+        <v>45607.96191025463</v>
+      </c>
+      <c r="I4" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A5" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n" s="10">
+        <v>45607.962082349535</v>
+      </c>
+      <c r="I5" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A6" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n" s="11">
+        <v>45607.96218962963</v>
+      </c>
+      <c r="I6" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A7" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n" s="12">
+        <v>45607.96236673611</v>
+      </c>
+      <c r="I7" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A8" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n" s="13">
+        <v>45607.9624753125</v>
+      </c>
+      <c r="I8" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A9" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n" s="14">
+        <v>45607.96260443287</v>
+      </c>
+      <c r="I9" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="60.0" customHeight="true" s="6" customFormat="true">
+      <c r="A10" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="F10" t="s" s="6">
         <v>12</v>
+      </c>
+      <c r="G10" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n" s="15">
+        <v>45607.962704930556</v>
+      </c>
+      <c r="I10" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s" s="6">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
